--- a/data/long_dif/P23_4-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_4-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>12,27%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23,54%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,92; 42,63</t>
+          <t>19,8; 54,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 23,87</t>
+          <t>13,47; 25,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,54; 24,36</t>
+          <t>9,34; 27,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,72; 29,42</t>
+          <t>12,24; 25,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,19; 18,51</t>
+          <t>8,83; 16,71</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 23,98</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 35,92</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,44; 18,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 22,12</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,66%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>61,39%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>64,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>68,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,44%</t>
+          <t>71,57%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66,89%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>58,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>66,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,02; 65,67</t>
+          <t>34,92; 62,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,45; 68,48</t>
+          <t>48,89; 68,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,39; 74,42</t>
+          <t>54,31; 77,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,15; 74,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,77; 67,78</t>
+          <t>56,01; 72,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,91; 70,33</t>
+          <t>65,99; 76,56</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>58,79; 74,85</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50,09; 65,14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>59,42; 71,08</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>58,56; 72,75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,59%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17,53%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,02%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17,77%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,81; 25,14</t>
+          <t>10,53; 26,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 37,05</t>
+          <t>13,13; 37,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 20,4</t>
+          <t>11,3; 27,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,86; 29,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 20,6</t>
+          <t>12,05; 24,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 27,96</t>
+          <t>12,26; 21,13</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 23,23</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 22,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14,21; 27,28</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 22,7</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 22,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 19,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 24,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,9; 17,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 22,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 17,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>64,73%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>69,64%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,41%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,72%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,97%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,73; 69,63</t>
+          <t>14,21; 23,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64,32; 74,45</t>
+          <t>13,04; 20,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,52; 66,54</t>
+          <t>10,7; 20,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,4; 71,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,71; 66,91</t>
+          <t>16,59; 26,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,29; 71,73</t>
+          <t>11,78; 17,82</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,85; 21,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 23,17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 18,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,04; 19,41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>68,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>62,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>67,34%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>64,27%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>61,65%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>67,96%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>64,17%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,66; 23,27</t>
+          <t>53,58; 67,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,07; 18,88</t>
+          <t>62,67; 73,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,25; 21,53</t>
+          <t>56,3; 70,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,67; 21,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,65; 20,83</t>
+          <t>56,48; 67,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,73; 19,09</t>
+          <t>63,1; 71,0</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>59,18; 69,08</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>57,41; 66,15</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>64,43; 70,96</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59,16; 68,29</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,89; 26,82</t>
+          <t>15,28; 28,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,94; 20,58</t>
+          <t>11,44; 19,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,42; 23,61</t>
+          <t>16,28; 30,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,9; 15,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,21</t>
+          <t>13,24; 20,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,89; 16,56</t>
+          <t>14,81; 21,83</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14,61; 22,94</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 23,17</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 19,82</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16,51; 24,74</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>66,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>71,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>69,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>70,08%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>59,2; 72,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>65,06; 76,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>62,34; 71,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>64,32; 73,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>62,28; 70,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,77; 73,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,51; 20,57</t>
+          <t>12,2; 22,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,21; 17,43</t>
+          <t>11,52; 21,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,15; 18,02</t>
+          <t>8,46; 15,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,75; 23,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,14; 17,77</t>
+          <t>16,08; 25,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,99; 19,16</t>
+          <t>8,74; 14,8</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>13,18; 20,75</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 21,63</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>11,02; 16,84</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11,79; 16,98</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>69,69%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>71,32%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>64,58%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>67,76%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>68,89%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>65,72%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>68,7%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>70,07%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>65,17%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>17,38; 24,44</t>
+          <t>61,38; 75,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,8; 19,0</t>
+          <t>65,4; 76,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,88; 22,18</t>
+          <t>56,16; 70,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,31; 15,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,82; 22,19</t>
+          <t>62,07; 72,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,21; 16,26</t>
+          <t>64,72; 73,08</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>60,54; 71,0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>64,28; 72,48</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>66,07; 73,08</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>61,08; 69,15</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>68,4%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>64,12%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>19,54%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>20,54%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>58,58; 66,72</t>
+          <t>9,71; 21,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>64,24; 71,51</t>
+          <t>9,76; 16,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>61,94; 68,28</t>
+          <t>17,88; 32,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>65,48; 71,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>61,42; 66,67</t>
+          <t>8,95; 17,11</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>65,73; 70,33</t>
+          <t>16,13; 23,26</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>13,79; 22,07</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 17,01</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 19,32</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>17,35; 25,07</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,55; 19,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,98; 19,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>13,5; 18,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,39; 21,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,2; 18,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,26; 19,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>23,2%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>15,74; 32,62</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>9,57; 21,08</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>15,04; 25,13</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>62,44%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>67,45%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>64,77%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>53,6; 70,71</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>60,25; 74,49</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>58,53; 70,25</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>10,1; 20,25</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 24,84</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>11,69; 19,87</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>13,9%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>17,02%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>17,55; 24,24</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 19,67</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>11,17; 17,21</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 22,28</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>11,25; 14,9</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>14,49; 19,47</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 22,27</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 16,69</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>13,7; 17,49</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>62,52%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>67,82%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>64,28%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>65,05%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>68,83%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>65,39%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>63,81%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>68,34%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>64,85%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>58,38; 66,4</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>63,67; 71,34</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>59,23; 68,62</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>61,74; 67,93</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>66,21; 71,54</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>61,98; 69,02</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>61,05; 66,29</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>66,0; 70,42</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>61,77; 67,67</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>18,07%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>16,81%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>19,64%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 20,32</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 19,95</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>18,04; 26,39</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>13,32; 18,26</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>16,1; 20,58</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>14,83; 20,33</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>14,51; 18,6</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>15,12; 19,24</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>17,26; 22,38</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_4-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_4-Estudios-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -770,7 +770,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -884,7 +884,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1116,7 +1116,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1230,7 +1230,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1462,7 +1462,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1576,7 +1576,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1808,7 +1808,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1922,7 +1922,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
